--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>15.636979326841921</v>
+        <v>15.636979375458962</v>
       </c>
       <c r="C2">
-        <v>27.021238148044034</v>
+        <v>27.021238098310384</v>
       </c>
       <c r="D2">
-        <v>35.739621580092503</v>
+        <v>35.739621471080198</v>
       </c>
       <c r="E2">
-        <v>54.987817463416043</v>
+        <v>54.98781741861238</v>
       </c>
       <c r="F2">
-        <v>31.278836638191937</v>
+        <v>31.278836591765923</v>
       </c>
       <c r="G2">
-        <v>14.026339187186283</v>
+        <v>14.026339164549634</v>
       </c>
       <c r="H2">
-        <v>32.974320667748692</v>
+        <v>32.974320588129331</v>
       </c>
       <c r="I2">
-        <v>31.391456482925861</v>
+        <v>31.39145647928731</v>
       </c>
       <c r="J2">
-        <v>35.724129443345859</v>
+        <v>35.724129340528819</v>
       </c>
       <c r="K2">
-        <v>13.099669458494031</v>
+        <v>13.099669434487387</v>
       </c>
       <c r="L2">
-        <v>6.8390549647181746</v>
+        <v>6.8390549241816032</v>
       </c>
       <c r="M2">
-        <v>-14.619021961789738</v>
+        <v>-14.619021948680652</v>
       </c>
       <c r="N2">
-        <v>32.451382783679044</v>
+        <v>32.451382755757201</v>
       </c>
       <c r="O2">
-        <v>39.192601316440509</v>
+        <v>39.192601175029438</v>
       </c>
       <c r="P2">
-        <v>44.465832281099864</v>
+        <v>44.46583231831498</v>
       </c>
       <c r="Q2">
-        <v>3.8332900093104949</v>
+        <v>3.8332899657263977</v>
       </c>
       <c r="R2">
-        <v>-17.99716072040232</v>
+        <v>-17.997160823000552</v>
       </c>
       <c r="S2">
-        <v>58.42758819048592</v>
+        <v>58.427588201131783</v>
       </c>
       <c r="T2">
-        <v>60.885170214598062</v>
+        <v>60.885170258276979</v>
       </c>
       <c r="U2">
-        <v>7.5009130744110362</v>
+        <v>7.5009129954495863</v>
       </c>
       <c r="V2">
-        <v>24.152547478034847</v>
+        <v>24.152547413424042</v>
       </c>
       <c r="W2">
-        <v>-19.116599563991578</v>
+        <v>-19.116599728000892</v>
       </c>
       <c r="X2">
-        <v>11.802677174176933</v>
+        <v>11.802677105552236</v>
       </c>
       <c r="Y2">
-        <v>73.585364294898397</v>
+        <v>73.585364190129837</v>
       </c>
       <c r="Z2">
-        <v>38.289646187794844</v>
+        <v>38.289646126880086</v>
       </c>
       <c r="AA2">
-        <v>52.636116059360319</v>
+        <v>52.636115716724809</v>
       </c>
       <c r="AB2">
-        <v>48.098333087928339</v>
+        <v>48.09833295984393</v>
       </c>
       <c r="AC2">
-        <v>11.183444959976944</v>
+        <v>11.183444842525855</v>
       </c>
       <c r="AD2">
-        <v>72.933188991671287</v>
+        <v>72.93318883791315</v>
       </c>
       <c r="AE2">
-        <v>28.436512209509836</v>
+        <v>28.436512193413797</v>
       </c>
       <c r="AF2">
-        <v>40.910519348356175</v>
+        <v>40.910519255268404</v>
       </c>
       <c r="AG2">
-        <v>44.54765724582353</v>
+        <v>44.547657026593889</v>
       </c>
       <c r="AH2">
-        <v>49.790076229889799</v>
+        <v>49.790076131289752</v>
       </c>
       <c r="AI2">
-        <v>43.621600441536458</v>
+        <v>43.621600305889345</v>
       </c>
       <c r="AJ2">
-        <v>31.003952799753641</v>
+        <v>31.003952683394015</v>
       </c>
       <c r="AK2">
-        <v>34.49717452322313</v>
+        <v>34.497174468733306</v>
       </c>
       <c r="AL2">
-        <v>2.5212823936319277</v>
+        <v>2.5212822956856202</v>
       </c>
       <c r="AM2">
-        <v>48.250152852944893</v>
+        <v>48.250152758735695</v>
       </c>
       <c r="AN2">
-        <v>42.143335000302109</v>
+        <v>42.143334918405046</v>
       </c>
       <c r="AO2">
-        <v>66.789313296738939</v>
+        <v>66.789313124458658</v>
       </c>
       <c r="AP2">
-        <v>50.742747364132782</v>
+        <v>50.742747264162801</v>
       </c>
       <c r="AQ2">
-        <v>7.8826544261350957</v>
+        <v>7.8826542374802271</v>
       </c>
       <c r="AR2">
-        <v>64.206111587997754</v>
+        <v>64.206111570223541</v>
       </c>
       <c r="AS2">
-        <v>58.953372529515903</v>
+        <v>58.953372311899045</v>
       </c>
       <c r="AT2">
-        <v>36.615074661421104</v>
+        <v>36.615074563640327</v>
       </c>
       <c r="AU2">
-        <v>48.701247091025188</v>
+        <v>48.701247072371132</v>
       </c>
       <c r="AV2">
-        <v>41.280861223133257</v>
+        <v>41.28086086216075</v>
       </c>
       <c r="AW2">
-        <v>24.296050819308995</v>
+        <v>24.296050758858584</v>
       </c>
       <c r="AX2">
-        <v>56.283142367941039</v>
+        <v>56.283142253713358</v>
       </c>
       <c r="AY2">
-        <v>74.741736720991383</v>
+        <v>74.741736619713521</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>22.435416702720012</v>
+        <v>22.435416646690808</v>
       </c>
       <c r="C3">
-        <v>25.280937447079875</v>
+        <v>25.280937407552361</v>
       </c>
       <c r="D3">
-        <v>54.612663927865476</v>
+        <v>54.612663838178136</v>
       </c>
       <c r="E3">
-        <v>51.930811545783982</v>
+        <v>51.930811546675649</v>
       </c>
       <c r="F3">
-        <v>23.015214236891445</v>
+        <v>23.015214132334112</v>
       </c>
       <c r="G3">
-        <v>41.044221693586607</v>
+        <v>41.044221638789367</v>
       </c>
       <c r="H3">
-        <v>4.7212792208920771</v>
+        <v>4.7212791771299623</v>
       </c>
       <c r="I3">
-        <v>14.89697892606315</v>
+        <v>14.896978889609555</v>
       </c>
       <c r="J3">
-        <v>46.827931015295334</v>
+        <v>46.827930899388562</v>
       </c>
       <c r="K3">
-        <v>123.43539378929313</v>
+        <v>123.43539367961705</v>
       </c>
       <c r="L3">
-        <v>44.541654561866032</v>
+        <v>44.541654480489342</v>
       </c>
       <c r="M3">
-        <v>9.2636372583782123</v>
+        <v>9.2636269818484767</v>
       </c>
       <c r="N3">
-        <v>30.929624886010082</v>
+        <v>30.929624830154999</v>
       </c>
       <c r="O3">
-        <v>-48.723924489794157</v>
+        <v>-48.723924565886719</v>
       </c>
       <c r="P3">
-        <v>47.9623211724657</v>
+        <v>47.962321080895634</v>
       </c>
       <c r="Q3">
-        <v>26.10932963976359</v>
+        <v>26.109329563284316</v>
       </c>
       <c r="R3">
-        <v>5.5807354414492378</v>
+        <v>5.5807353201441572</v>
       </c>
       <c r="S3">
-        <v>56.158402122969555</v>
+        <v>56.158402113293171</v>
       </c>
       <c r="T3">
-        <v>51.251543686615697</v>
+        <v>51.25154362876404</v>
       </c>
       <c r="U3">
-        <v>39.347219736609688</v>
+        <v>39.347219699495817</v>
       </c>
       <c r="V3">
-        <v>42.498493264815089</v>
+        <v>42.49849321660281</v>
       </c>
       <c r="W3">
-        <v>-0.32284285231664006</v>
+        <v>-0.32284301578152708</v>
       </c>
       <c r="X3">
-        <v>-4.4328904217102911</v>
+        <v>-4.4328904855732194</v>
       </c>
       <c r="Y3">
-        <v>85.33100338994636</v>
+        <v>85.331003250633074</v>
       </c>
       <c r="Z3">
-        <v>57.132671249421271</v>
+        <v>57.132671178000614</v>
       </c>
       <c r="AA3">
-        <v>54.118156850927853</v>
+        <v>54.118156903247318</v>
       </c>
       <c r="AB3">
-        <v>50.645433291886164</v>
+        <v>50.645433198425529</v>
       </c>
       <c r="AC3">
-        <v>48.74997170139126</v>
+        <v>48.749971694137813</v>
       </c>
       <c r="AD3">
-        <v>59.569424510386369</v>
+        <v>59.569424375718228</v>
       </c>
       <c r="AE3">
-        <v>49.830492296952762</v>
+        <v>49.830492244911269</v>
       </c>
       <c r="AF3">
-        <v>37.607791124079029</v>
+        <v>37.607791044605072</v>
       </c>
       <c r="AG3">
-        <v>28.960312349539425</v>
+        <v>28.960312339019289</v>
       </c>
       <c r="AH3">
-        <v>23.958718466870579</v>
+        <v>23.958718300698447</v>
       </c>
       <c r="AI3">
-        <v>92.749319760252661</v>
+        <v>92.749319623179915</v>
       </c>
       <c r="AJ3">
-        <v>54.886431936953961</v>
+        <v>54.886431868777109</v>
       </c>
       <c r="AK3">
-        <v>39.531700541015276</v>
+        <v>39.531700501576353</v>
       </c>
       <c r="AL3">
-        <v>36.403273821090906</v>
+        <v>36.403273750996426</v>
       </c>
       <c r="AM3">
-        <v>47.634878376024147</v>
+        <v>47.634878117660293</v>
       </c>
       <c r="AN3">
-        <v>-14.69504841842639</v>
+        <v>-14.69504854780593</v>
       </c>
       <c r="AO3">
-        <v>60.227736801820427</v>
+        <v>60.22773672560141</v>
       </c>
       <c r="AP3">
-        <v>22.346987174166909</v>
+        <v>22.346987022891238</v>
       </c>
       <c r="AQ3">
-        <v>36.400055713355307</v>
+        <v>36.400055604403533</v>
       </c>
       <c r="AR3">
-        <v>69.701456704019762</v>
+        <v>69.701456685693657</v>
       </c>
       <c r="AS3">
-        <v>40.878989741117941</v>
+        <v>40.878989578816807</v>
       </c>
       <c r="AT3">
-        <v>59.275948736178876</v>
+        <v>59.27594851243618</v>
       </c>
       <c r="AU3">
-        <v>28.586928385175241</v>
+        <v>28.586928271298873</v>
       </c>
       <c r="AV3">
-        <v>29.51145010156354</v>
+        <v>29.511449800254454</v>
       </c>
       <c r="AW3">
-        <v>27.473794971584741</v>
+        <v>27.473794789142097</v>
       </c>
       <c r="AX3">
-        <v>28.517493585801258</v>
+        <v>28.517493440447883</v>
       </c>
       <c r="AY3">
-        <v>84.654224814523431</v>
+        <v>84.65422477916951</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_submax_2.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>15.636979375458962</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>27.021238098310384</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>35.739621471080198</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>54.98781741861238</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>31.278836591765923</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>14.026339164549634</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>32.974320588129331</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>31.39145647928731</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>35.724129340528819</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>13.099669434487387</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>6.8390549241816032</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-14.619021948680652</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>32.451382755757201</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>39.192601175029438</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>44.46583231831498</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>3.8332899657263977</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-17.997160823000552</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>58.427588201131783</v>
+        <v>36.262754148212466</v>
       </c>
       <c r="T2">
         <v>60.885170258276979</v>
@@ -588,55 +477,55 @@
         <v>38.289646126880086</v>
       </c>
       <c r="AA2">
-        <v>52.636115716724809</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>48.09833295984393</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>11.183444842525855</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>72.93318883791315</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>28.436512193413797</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>40.910519255268404</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>44.547657026593889</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>49.790076131289752</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>43.621600305889345</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>31.003952683394015</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>34.497174468733306</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>2.5212822956856202</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>48.250152758735695</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>42.143334918405046</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>66.789313124458658</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>50.742747264162801</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>7.8826542374802271</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>64.206111570223541</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>22.435416646690808</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>25.280937407552361</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>54.612663838178136</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>51.930811546675649</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>23.015214132334112</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>41.044221638789367</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>4.7212791771299623</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>14.896978889609555</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>46.827930899388562</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>123.43539367961705</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>44.541654480489342</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>9.2636269818484767</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>30.929624830154999</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>-48.723924565886719</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>47.962321080895634</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>26.109329563284316</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>5.5807353201441572</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>56.158402113293171</v>
@@ -743,55 +629,55 @@
         <v>57.132671178000614</v>
       </c>
       <c r="AA3">
-        <v>54.118156903247318</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>50.645433198425529</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>48.749971694137813</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>59.569424375718228</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>49.830492244911269</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>37.607791044605072</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>28.960312339019289</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>23.958718300698447</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>92.749319623179915</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>54.886431868777109</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>39.531700501576353</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>36.403273750996426</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>47.634878117660293</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-14.69504854780593</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>60.22773672560141</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>22.346987022891238</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>36.400055604403533</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>69.701456685693657</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9.9630779028326586</v>
+        <v>39.249740724287321</v>
       </c>
       <c r="C2">
-        <v>18.118469300935438</v>
+        <v>39.875510433793252</v>
       </c>
       <c r="D2">
-        <v>39.843733679743472</v>
+        <v>46.228756715520007</v>
       </c>
       <c r="E2">
-        <v>22.368954552668139</v>
+        <v>32.128865179222252</v>
       </c>
       <c r="F2">
         <v>29.676421669190152</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>26.446326867144894</v>
+        <v>68.194223218324865</v>
       </c>
       <c r="C3">
-        <v>31.186227269489848</v>
+        <v>43.396973129585184</v>
       </c>
       <c r="D3">
-        <v>47.498741140054065</v>
+        <v>43.044488056068573</v>
       </c>
       <c r="E3">
-        <v>76.441847137357783</v>
+        <v>16.955872732733589</v>
       </c>
       <c r="F3">
         <v>23.071423669000126</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_submax_2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9.9630779028326586</v>
+        <v>12.327871893356299</v>
       </c>
       <c r="C2">
-        <v>18.118469300935438</v>
+        <v>39.249740724287321</v>
       </c>
       <c r="D2">
-        <v>39.843733679743472</v>
+        <v>51.556526058029348</v>
       </c>
       <c r="E2">
-        <v>22.368954552668139</v>
+        <v>46.228756715520007</v>
       </c>
       <c r="F2">
         <v>29.676421669190152</v>
@@ -670,16 +665,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>26.446326867144894</v>
+        <v>28.211836691470481</v>
       </c>
       <c r="C3">
-        <v>31.186227269489848</v>
+        <v>68.194223218324865</v>
       </c>
       <c r="D3">
-        <v>47.498741140054065</v>
+        <v>68.282344595357159</v>
       </c>
       <c r="E3">
-        <v>84.647295620052503</v>
+        <v>43.044488056068573</v>
       </c>
       <c r="F3">
         <v>23.071423669000126</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_submax_2.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,151 +513,151 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>9.9630780084963391</v>
+      </c>
+      <c r="C2">
+        <v>18.118469157559755</v>
+      </c>
+      <c r="D2">
+        <v>39.843733398432015</v>
+      </c>
+      <c r="E2">
+        <v>22.368954452322274</v>
+      </c>
+      <c r="F2">
+        <v>29.676421488594073</v>
+      </c>
+      <c r="G2">
+        <v>33.140785140593827</v>
+      </c>
+      <c r="H2">
+        <v>15.162389841724769</v>
+      </c>
+      <c r="I2">
+        <v>12.99188767011678</v>
+      </c>
+      <c r="J2">
+        <v>30.507912462024233</v>
+      </c>
+      <c r="K2">
+        <v>12.619880236930911</v>
+      </c>
+      <c r="L2">
+        <v>22.304672375473157</v>
+      </c>
+      <c r="M2">
+        <v>32.415867957226389</v>
+      </c>
+      <c r="N2">
         <v>12.327871893356299</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>39.249740724287321</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>8.3114515085671297</v>
+      </c>
+      <c r="Q2">
+        <v>17.502357597373621</v>
+      </c>
+      <c r="R2">
+        <v>39.875510433793252</v>
+      </c>
+      <c r="T2">
+        <v>23.678792847465104</v>
+      </c>
+      <c r="U2">
+        <v>42.070504744069289</v>
+      </c>
+      <c r="V2">
+        <v>33.364762504276428</v>
+      </c>
+      <c r="W2">
+        <v>32.982963526331929</v>
+      </c>
+      <c r="X2">
+        <v>20.472946053274519</v>
+      </c>
+      <c r="Y2">
+        <v>46.213088746377743</v>
+      </c>
+      <c r="Z2">
+        <v>71.070484783570791</v>
+      </c>
+      <c r="AA2">
+        <v>53.392411411104909</v>
+      </c>
+      <c r="AB2">
+        <v>73.948054182823569</v>
+      </c>
+      <c r="AC2">
+        <v>29.345567308878472</v>
+      </c>
+      <c r="AD2">
+        <v>63.224412454621834</v>
+      </c>
+      <c r="AE2">
+        <v>23.406601538170683</v>
+      </c>
+      <c r="AF2">
+        <v>41.753182288502607</v>
+      </c>
+      <c r="AG2">
+        <v>33.8481728971555</v>
+      </c>
+      <c r="AH2">
+        <v>47.04647137863288</v>
+      </c>
+      <c r="AI2">
+        <v>68.683516645711506</v>
+      </c>
+      <c r="AJ2">
+        <v>25.395577584425777</v>
+      </c>
+      <c r="AK2">
+        <v>31.388520990157005</v>
+      </c>
+      <c r="AL2">
+        <v>22.951611288572387</v>
+      </c>
+      <c r="AM2">
         <v>51.556526058029348</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>46.228756715520007</v>
       </c>
-      <c r="F2">
-        <v>29.676421669190152</v>
-      </c>
-      <c r="G2">
-        <v>33.14078514901508</v>
-      </c>
-      <c r="H2">
-        <v>15.162390023820594</v>
-      </c>
-      <c r="I2">
-        <v>12.991887563166177</v>
-      </c>
-      <c r="J2">
-        <v>30.507912805695103</v>
-      </c>
-      <c r="K2">
-        <v>12.61988030859624</v>
-      </c>
-      <c r="L2">
-        <v>22.304672582649257</v>
-      </c>
-      <c r="M2">
-        <v>32.415867785819536</v>
-      </c>
-      <c r="N2">
-        <v>12.327872089947912</v>
-      </c>
-      <c r="O2">
-        <v>39.249741089677848</v>
-      </c>
-      <c r="P2">
-        <v>8.3114514517218012</v>
-      </c>
-      <c r="Q2">
-        <v>17.502357826429076</v>
-      </c>
-      <c r="R2">
-        <v>39.875510908428858</v>
-      </c>
-      <c r="T2">
-        <v>23.678792710551264</v>
-      </c>
-      <c r="U2">
-        <v>42.070505217864749</v>
-      </c>
-      <c r="V2">
-        <v>33.364762816184687</v>
-      </c>
-      <c r="W2">
-        <v>32.98296383027666</v>
-      </c>
-      <c r="X2">
-        <v>20.472946295311228</v>
-      </c>
-      <c r="Y2">
-        <v>46.213089222571469</v>
-      </c>
-      <c r="Z2">
-        <v>71.07048538671846</v>
-      </c>
-      <c r="AA2">
-        <v>53.392412141383616</v>
-      </c>
-      <c r="AB2">
-        <v>73.948054515918471</v>
-      </c>
-      <c r="AC2">
-        <v>29.345567621600775</v>
-      </c>
-      <c r="AD2">
-        <v>63.224412793620964</v>
-      </c>
-      <c r="AE2">
-        <v>23.40660157896626</v>
-      </c>
-      <c r="AF2">
-        <v>41.753182692937344</v>
-      </c>
-      <c r="AG2">
-        <v>33.848173387340132</v>
-      </c>
-      <c r="AH2">
-        <v>47.046471740281724</v>
-      </c>
-      <c r="AI2">
-        <v>68.683517067952039</v>
-      </c>
-      <c r="AJ2">
-        <v>25.395577852297308</v>
-      </c>
-      <c r="AK2">
-        <v>31.388521124636515</v>
-      </c>
-      <c r="AL2">
-        <v>22.951611646743974</v>
-      </c>
-      <c r="AM2">
-        <v>51.556526327647624</v>
-      </c>
-      <c r="AN2">
-        <v>46.228757042578891</v>
-      </c>
       <c r="AO2">
-        <v>49.656922762633478</v>
+        <v>49.656922086763004</v>
       </c>
       <c r="AP2">
-        <v>39.227027964051977</v>
+        <v>39.22702759856265</v>
       </c>
       <c r="AQ2">
-        <v>32.128865728947318</v>
+        <v>32.128865179222252</v>
       </c>
       <c r="AR2">
-        <v>29.651848151921499</v>
+        <v>29.651848059044706</v>
       </c>
       <c r="AS2">
-        <v>48.610024607050775</v>
+        <v>48.610024084209357</v>
       </c>
       <c r="AT2">
-        <v>68.106732111706876</v>
+        <v>68.10673157726643</v>
       </c>
       <c r="AU2">
-        <v>18.693299063622813</v>
+        <v>18.693299157746875</v>
       </c>
       <c r="AV2">
-        <v>68.544986452115623</v>
+        <v>68.544985853104777</v>
       </c>
       <c r="AW2">
-        <v>51.626920052437441</v>
+        <v>51.626919846239453</v>
       </c>
       <c r="AX2">
-        <v>54.111301016857539</v>
+        <v>54.11130069031276</v>
       </c>
       <c r="AY2">
-        <v>56.587851638847262</v>
+        <v>56.587851233023031</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +665,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>26.446326734647752</v>
+      </c>
+      <c r="C3">
+        <v>31.186227177802561</v>
+      </c>
+      <c r="D3">
+        <v>47.498740640205398</v>
+      </c>
+      <c r="E3">
+        <v>84.647295117574075</v>
+      </c>
+      <c r="F3">
+        <v>23.071423380545127</v>
+      </c>
+      <c r="G3">
+        <v>31.111805688452137</v>
+      </c>
+      <c r="H3">
+        <v>25.357766086431482</v>
+      </c>
+      <c r="I3">
+        <v>11.559905556397839</v>
+      </c>
+      <c r="J3">
+        <v>41.234887941643613</v>
+      </c>
+      <c r="K3">
+        <v>31.490561271255391</v>
+      </c>
+      <c r="L3">
+        <v>28.022240741683866</v>
+      </c>
+      <c r="M3">
+        <v>25.681304621776217</v>
+      </c>
+      <c r="N3">
         <v>28.211836691470481</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>68.194223218324865</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>59.488686429158534</v>
+      </c>
+      <c r="Q3">
+        <v>11.851939581526672</v>
+      </c>
+      <c r="R3">
+        <v>43.396973129585184</v>
+      </c>
+      <c r="S3">
+        <v>28.154543107437796</v>
+      </c>
+      <c r="T3">
+        <v>32.756702228013459</v>
+      </c>
+      <c r="U3">
+        <v>39.629946351021914</v>
+      </c>
+      <c r="V3">
+        <v>22.75069930910789</v>
+      </c>
+      <c r="W3">
+        <v>25.057504053284802</v>
+      </c>
+      <c r="X3">
+        <v>31.013993539479024</v>
+      </c>
+      <c r="Y3">
+        <v>69.357671351130563</v>
+      </c>
+      <c r="Z3">
+        <v>71.549734187303855</v>
+      </c>
+      <c r="AA3">
+        <v>51.508483123547656</v>
+      </c>
+      <c r="AB3">
+        <v>48.181041282401146</v>
+      </c>
+      <c r="AC3">
+        <v>30.515080300065367</v>
+      </c>
+      <c r="AD3">
+        <v>45.093822618021605</v>
+      </c>
+      <c r="AE3">
+        <v>33.362414357361651</v>
+      </c>
+      <c r="AF3">
+        <v>49.468108138109997</v>
+      </c>
+      <c r="AG3">
+        <v>30.787808773908438</v>
+      </c>
+      <c r="AH3">
+        <v>32.246961970129263</v>
+      </c>
+      <c r="AI3">
+        <v>47.208263848618643</v>
+      </c>
+      <c r="AJ3">
+        <v>50.075298849777802</v>
+      </c>
+      <c r="AK3">
+        <v>30.192775913366436</v>
+      </c>
+      <c r="AL3">
+        <v>43.718091759096886</v>
+      </c>
+      <c r="AM3">
         <v>68.282344595357159</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>43.044488056068573</v>
       </c>
-      <c r="F3">
-        <v>23.071423669000126</v>
-      </c>
-      <c r="G3">
-        <v>31.111805869735758</v>
-      </c>
-      <c r="H3">
-        <v>25.357766242329248</v>
-      </c>
-      <c r="I3">
-        <v>11.559905777663539</v>
-      </c>
-      <c r="J3">
-        <v>41.234888320431004</v>
-      </c>
-      <c r="K3">
-        <v>31.490561711601622</v>
-      </c>
-      <c r="L3">
-        <v>28.022241059903543</v>
-      </c>
-      <c r="M3">
-        <v>25.684192948193935</v>
-      </c>
-      <c r="N3">
-        <v>28.211836915694139</v>
-      </c>
-      <c r="O3">
-        <v>68.194223913335478</v>
-      </c>
-      <c r="P3">
-        <v>59.488686811035429</v>
-      </c>
-      <c r="Q3">
-        <v>11.851939846394242</v>
-      </c>
-      <c r="R3">
-        <v>43.396973502529555</v>
-      </c>
-      <c r="S3">
-        <v>28.154543167605535</v>
-      </c>
-      <c r="T3">
-        <v>32.756702559940933</v>
-      </c>
-      <c r="U3">
-        <v>39.629946648075538</v>
-      </c>
-      <c r="V3">
-        <v>22.750699472522339</v>
-      </c>
-      <c r="W3">
-        <v>25.057504570243054</v>
-      </c>
-      <c r="X3">
-        <v>31.013993888025006</v>
-      </c>
-      <c r="Y3">
-        <v>69.357672126517556</v>
-      </c>
-      <c r="Z3">
-        <v>71.549734716987317</v>
-      </c>
-      <c r="AA3">
-        <v>51.50848301591536</v>
-      </c>
-      <c r="AB3">
-        <v>48.181041483773512</v>
-      </c>
-      <c r="AC3">
-        <v>30.515080325147352</v>
-      </c>
-      <c r="AD3">
-        <v>45.093822970667183</v>
-      </c>
-      <c r="AE3">
-        <v>33.362414474603668</v>
-      </c>
-      <c r="AF3">
-        <v>49.468108390412787</v>
-      </c>
-      <c r="AG3">
-        <v>30.787808796557009</v>
-      </c>
-      <c r="AH3">
-        <v>32.246962385337092</v>
-      </c>
-      <c r="AI3">
-        <v>47.208264235335633</v>
-      </c>
-      <c r="AJ3">
-        <v>50.075299020035949</v>
-      </c>
-      <c r="AK3">
-        <v>30.192776006782406</v>
-      </c>
-      <c r="AL3">
-        <v>43.718091985507158</v>
-      </c>
-      <c r="AM3">
-        <v>68.28234521854138</v>
-      </c>
-      <c r="AN3">
-        <v>43.044488434769875</v>
-      </c>
       <c r="AO3">
-        <v>77.882956716478759</v>
+        <v>77.882956480121877</v>
       </c>
       <c r="AP3">
-        <v>46.42889620386115</v>
+        <v>46.428895671756663</v>
       </c>
       <c r="AQ3">
-        <v>16.955872823089134</v>
+        <v>16.955872732733589</v>
       </c>
       <c r="AR3">
-        <v>32.171876641839461</v>
+        <v>32.171876507366484</v>
       </c>
       <c r="AS3">
-        <v>36.901892001617732</v>
+        <v>36.901891558190925</v>
       </c>
       <c r="AT3">
-        <v>54.6763789381991</v>
+        <v>54.676378095523113</v>
       </c>
       <c r="AU3">
-        <v>22.775564405641969</v>
+        <v>22.775564316067047</v>
       </c>
       <c r="AV3">
-        <v>44.189455262573105</v>
+        <v>44.189454641446751</v>
       </c>
       <c r="AW3">
-        <v>47.16874783264408</v>
+        <v>47.168747376325051</v>
       </c>
       <c r="AX3">
-        <v>33.81614524653228</v>
+        <v>33.816144779411452</v>
       </c>
       <c r="AY3">
-        <v>66.130265267448635</v>
+        <v>66.130265107302549</v>
       </c>
     </row>
   </sheetData>
